--- a/GADM_modularization.xlsx
+++ b/GADM_modularization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>함수명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,22 +46,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Call.DBlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Call.Dblist로 호출한 DB의 cohort list 호출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ip, usr, pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip. Usr, pw, schema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Call.cohort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,7 +194,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>접속한 서버의 DB를 호출</t>
+    <t>Call.DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 호출, server 형태도 추가가ㅓ 되어야 할듯(postgre, mssql 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server, ip, usr, pw, schema, targettab="cohort", cdmVersion="5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip. usr, pw, schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIS.cohortextraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcdi, ocdi와 GIS.distribution에 따라 지역별 target, outcome count 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIS.distribution, cdmDatabaseSchema(이거 없애기를 권장), targettab="cohort"
+startdt, enddt, distinct, tcdi, ocdi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,12 +266,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,14 +580,14 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -600,124 +616,135 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -742,47 +769,47 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
